--- a/trutas.xlsx
+++ b/trutas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jfrega/Documents/GitHub/SAOB10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D218AE9-9A01-ED42-B7CA-63DA0E4BF29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F85218A-C676-EC4E-8B0A-AB362D37CF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A119148E-B042-9846-AC39-B902A6202D54}"/>
   </bookViews>
